--- a/docs/autonomous_distance_trials.xlsx
+++ b/docs/autonomous_distance_trials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="9495" windowHeight="5895" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="9495" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>trial</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>right circle</t>
+  </si>
+  <si>
+    <t>skewed to right</t>
   </si>
 </sst>
 </file>
@@ -409,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -762,7 +765,7 @@
         <v>16</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K9:K12" si="3">E10+F10</f>
+        <f t="shared" ref="K10:K12" si="3">E10+F10</f>
         <v>-126</v>
       </c>
       <c r="L10">
@@ -783,23 +786,42 @@
       <c r="D11">
         <v>4.8</v>
       </c>
+      <c r="I11">
+        <v>19.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
       <c r="K11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.0625</v>
       </c>
     </row>
     <row r="12" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="D12">
+        <f>20/4</f>
+        <v>5</v>
+      </c>
       <c r="K12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" t="e">
+      <c r="L12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/docs/autonomous_distance_trials.xlsx
+++ b/docs/autonomous_distance_trials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>trial</t>
   </si>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -727,7 +727,7 @@
         <v>-77.580000000000013</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L12" si="2">I9/D9</f>
+        <f t="shared" ref="L9:L14" si="2">I9/D9</f>
         <v>4.2</v>
       </c>
     </row>
@@ -809,11 +809,13 @@
         <v>0.5</v>
       </c>
       <c r="C12">
-        <v>6.9999999999999994E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D12">
-        <f>20/4</f>
-        <v>5</v>
+        <v>3.9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
@@ -822,6 +824,117 @@
       <c r="L12">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D13">
+        <v>3.9</v>
+      </c>
+      <c r="E13">
+        <v>13549</v>
+      </c>
+      <c r="F13">
+        <v>-12671</v>
+      </c>
+      <c r="G13">
+        <v>98.75</v>
+      </c>
+      <c r="H13">
+        <v>-92.128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K18" si="4">E13+F13</f>
+        <v>878</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L18" si="5">I13/D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+      <c r="C14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E14">
+        <v>17004</v>
+      </c>
+      <c r="F14">
+        <v>-15014</v>
+      </c>
+      <c r="G14">
+        <v>-13.1</v>
+      </c>
+      <c r="H14">
+        <v>10.6</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>1990</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L15" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12">
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12">
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
